--- a/biology/Médecine/Leon_Manteuffel-Szoege/Leon_Manteuffel-Szoege.xlsx
+++ b/biology/Médecine/Leon_Manteuffel-Szoege/Leon_Manteuffel-Szoege.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leon Manteuffel-Szoege est né le 5 mai 1904 et décédé le 26 mars 1973, est un cardiologue polonais d'origine allemande. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a émis la théorie que le cœur pourrait n'être qu'un organe de régulation rythmique de la circulation sanguine au lieu d'en être la cause comme le ferait une pompe. Pour le démontrer, il a procédé à des expériences sur des chiens en dérivant la circulation en dehors du cœur. Il a alors constaté que le débit-minute était considérablement augmenté. Selon ses dires, si le cœur était une pompe, il aurait constaté une diminution ou même un arrêt de la circulation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a émis la théorie que le cœur pourrait n'être qu'un organe de régulation rythmique de la circulation sanguine au lieu d'en être la cause comme le ferait une pompe. Pour le démontrer, il a procédé à des expériences sur des chiens en dérivant la circulation en dehors du cœur. Il a alors constaté que le débit-minute était considérablement augmenté. Selon ses dires, si le cœur était une pompe, il aurait constaté une diminution ou même un arrêt de la circulation.
 </t>
         </is>
       </c>
